--- a/disabled products/Gen 3S 7-Door Beer.xlsx
+++ b/disabled products/Gen 3S 7-Door Beer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrypkahauer/Developer/Python/Jenn/prod_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0E0008-8538-7048-A603-8695E06D85DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7B03FF-D323-5B4F-BFD4-F76E8D075951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17620" yWindow="500" windowWidth="20760" windowHeight="16000" xr2:uid="{C857DBEC-5147-7544-B110-E069290FB827}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{77073258-615E-AF40-B220-2A739A3ABA9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,562 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
+  <si>
+    <t>085000035818</t>
+  </si>
+  <si>
+    <t>085000035795</t>
+  </si>
+  <si>
+    <t>085000035801</t>
+  </si>
+  <si>
+    <t>088232003181</t>
+  </si>
+  <si>
+    <t>088232003167</t>
+  </si>
+  <si>
+    <t>085000026809</t>
+  </si>
+  <si>
+    <t>Liberty Creek Pink Moscato 500ml</t>
+  </si>
+  <si>
+    <t>085000026816</t>
+  </si>
+  <si>
+    <t>Liberty Creek Sweet Red 500ml</t>
+  </si>
+  <si>
+    <t>085000021828</t>
+  </si>
+  <si>
+    <t>Liberty Creek Cabeernet Sauvignon 500ml</t>
+  </si>
+  <si>
+    <t>085000022710</t>
+  </si>
+  <si>
+    <t>Liberty Creek Pino Grigio 500ml</t>
+  </si>
+  <si>
+    <t>085000021812</t>
+  </si>
+  <si>
+    <t>Liberty Creek Chardonnay 500ml</t>
+  </si>
+  <si>
+    <t>VIBE Strawberry Limeade Tetra 500mL</t>
+  </si>
+  <si>
+    <t>VIBE Fruit Punch Tetra 500mL</t>
+  </si>
+  <si>
+    <t>Vendange Pino Grigio Tetra 500mL</t>
+  </si>
+  <si>
+    <t>Vendange Chardonnay Tetra 500mL</t>
+  </si>
+  <si>
+    <t>851133006158</t>
+  </si>
+  <si>
+    <t>Beatbox Pink Lemonade 16.9oz</t>
+  </si>
+  <si>
+    <t>851133006127</t>
+  </si>
+  <si>
+    <t>Beatbox Fruit Punch 16.9oz</t>
+  </si>
+  <si>
+    <t>851133006349</t>
+  </si>
+  <si>
+    <t>Beatbox Tropical 16.9oz</t>
+  </si>
+  <si>
+    <t>851133006134</t>
+  </si>
+  <si>
+    <t>Beatbox Blue Razzberry 16.9oz</t>
+  </si>
+  <si>
+    <t>851133006755</t>
+  </si>
+  <si>
+    <t>Beatbox Hard Tea 16.9oz</t>
+  </si>
+  <si>
+    <t>851133006731</t>
+  </si>
+  <si>
+    <t>Beatbox Green Apple 16.9oz</t>
+  </si>
+  <si>
+    <t>850028324735</t>
+  </si>
+  <si>
+    <t>860010737309</t>
+  </si>
+  <si>
+    <t>850028324278</t>
+  </si>
+  <si>
+    <t>850028324711</t>
+  </si>
+  <si>
+    <t>860010737347</t>
+  </si>
+  <si>
+    <t>857641002149</t>
+  </si>
+  <si>
+    <t>857641002654</t>
+  </si>
+  <si>
+    <t>857641002890</t>
+  </si>
+  <si>
+    <t>857641002333</t>
+  </si>
+  <si>
+    <t>Big Sipz Pina Colada 200mL</t>
+  </si>
+  <si>
+    <t>Big Sipz Purple Punch 200mL</t>
+  </si>
+  <si>
+    <t>Big Sipz Strawberry Margarita 200mL</t>
+  </si>
+  <si>
+    <t>Big Sipz Classic Margarita 200mL</t>
+  </si>
+  <si>
+    <t>Big Sipz Hard Iced Tea 200mL</t>
+  </si>
+  <si>
+    <t>Buzzballz Limearita 187mL</t>
+  </si>
+  <si>
+    <t>Buzzballz Strawberry 187mL</t>
+  </si>
+  <si>
+    <t>Buzzballz Chocolate 187mL</t>
+  </si>
+  <si>
+    <t>Buzzballz Lotta Colada 187mL</t>
+  </si>
+  <si>
+    <t>684746400067</t>
+  </si>
+  <si>
+    <t>Clubtails Bahama Mama 16oz</t>
+  </si>
+  <si>
+    <t>684746800416</t>
+  </si>
+  <si>
+    <t>Clubtails Long Island Tea 16oz</t>
+  </si>
+  <si>
+    <t>684746400074</t>
+  </si>
+  <si>
+    <t>Clubtails Sex On The Beach 16oz</t>
+  </si>
+  <si>
+    <t>634985245950</t>
+  </si>
+  <si>
+    <t>Mike's Harder Seasonal 16oz</t>
+  </si>
+  <si>
+    <t>635985132196</t>
+  </si>
+  <si>
+    <t>Mike's Harder Strawberry Lemonade 16oz</t>
+  </si>
+  <si>
+    <t>369895249858</t>
+  </si>
+  <si>
+    <t>Mike's Harder Cranberry 16oz</t>
+  </si>
+  <si>
+    <t>635985258759</t>
+  </si>
+  <si>
+    <t>Mike's Harder Lemonade 16oz</t>
+  </si>
+  <si>
+    <t>684746400210</t>
+  </si>
+  <si>
+    <t>Clubtails Sunny Margarita 16oz</t>
+  </si>
+  <si>
+    <t>087692011712</t>
+  </si>
+  <si>
+    <t>Truly Strawberry Lemonade 24oz</t>
+  </si>
+  <si>
+    <t>087692009726</t>
+  </si>
+  <si>
+    <t>Truly Pineapple 24oz</t>
+  </si>
+  <si>
+    <t>087692009528</t>
+  </si>
+  <si>
+    <t>Truly Wild Berry 24oz</t>
+  </si>
+  <si>
+    <t>635985802181</t>
+  </si>
+  <si>
+    <t>White Claw Strawberry 19.2oz</t>
+  </si>
+  <si>
+    <t>635985802068</t>
+  </si>
+  <si>
+    <t>White Claw Watermelon 19.2oz</t>
+  </si>
+  <si>
+    <t>635985802167</t>
+  </si>
+  <si>
+    <t>White Claw Mango 19.2oz</t>
+  </si>
+  <si>
+    <t>635985802174</t>
+  </si>
+  <si>
+    <t>White Claw Grapefruit 19.2oz</t>
+  </si>
+  <si>
+    <t>635985802020</t>
+  </si>
+  <si>
+    <t>White Claw Black Cherry 19.2oz</t>
+  </si>
+  <si>
+    <t>635985802112</t>
+  </si>
+  <si>
+    <t>White Claw Surge Cranberry 19.2oz</t>
+  </si>
+  <si>
+    <t>087692015918</t>
+  </si>
+  <si>
+    <t>Twisted Tea Mangonada 24oz</t>
+  </si>
+  <si>
+    <t>087692852131</t>
+  </si>
+  <si>
+    <t>Twisted Tea Raspberry 24oz</t>
+  </si>
+  <si>
+    <t>087692005056</t>
+  </si>
+  <si>
+    <t>Twisted Tea Peach 24oz</t>
+  </si>
+  <si>
+    <t>087692752134</t>
+  </si>
+  <si>
+    <t>Twisted Tea Half &amp; Half 24oz</t>
+  </si>
+  <si>
+    <t>087692832133</t>
+  </si>
+  <si>
+    <t>Twisted Tea Lemon 24oz</t>
+  </si>
+  <si>
+    <t>018200287640</t>
+  </si>
+  <si>
+    <t>033544002025</t>
+  </si>
+  <si>
+    <t>082000776925</t>
+  </si>
+  <si>
+    <t>082000795223</t>
+  </si>
+  <si>
+    <t>082000806394</t>
+  </si>
+  <si>
+    <t>082000805946</t>
+  </si>
+  <si>
+    <t>810117130350</t>
+  </si>
+  <si>
+    <t>754527012281</t>
+  </si>
+  <si>
+    <t>754527011659</t>
+  </si>
+  <si>
+    <t>Bud Lt Platinum Seltzer Wild Berry 25oz</t>
+  </si>
+  <si>
+    <t>Modelo Spiked Aguas Frescas Pina 24oz</t>
+  </si>
+  <si>
+    <t>Smirnoff Smashed Screwdriver 24oz</t>
+  </si>
+  <si>
+    <t>Smirnoff Red White Berry 23.5oz</t>
+  </si>
+  <si>
+    <t>Smirnoff Ice Original 23.5oz</t>
+  </si>
+  <si>
+    <t>Smirnoff Smashed Lemon Tea 24oz</t>
+  </si>
+  <si>
+    <t>Monster Nasty Beast Tea 24oz</t>
+  </si>
+  <si>
+    <t>New Belgium VR Hardcharged 24oz</t>
+  </si>
+  <si>
+    <t>New Belgium Hardcharged Peach 24oz</t>
+  </si>
+  <si>
+    <t>087692005407</t>
+  </si>
+  <si>
+    <t>034100003234</t>
+  </si>
+  <si>
+    <t>810078781202</t>
+  </si>
+  <si>
+    <t>810078780199</t>
+  </si>
+  <si>
+    <t>635985258919</t>
+  </si>
+  <si>
+    <t>635985132158</t>
+  </si>
+  <si>
+    <t>635985249863</t>
+  </si>
+  <si>
+    <t>635985245834</t>
+  </si>
+  <si>
+    <t>635985132172</t>
+  </si>
+  <si>
+    <t>Angry Orchard Crisp Apple 24oz</t>
+  </si>
+  <si>
+    <t>Redd's Wicked Apple 24oz</t>
+  </si>
+  <si>
+    <t>Simply Spiked Limeade 24oz</t>
+  </si>
+  <si>
+    <t>Simply Spiked Lemonade 24oz</t>
+  </si>
+  <si>
+    <t>Mike's Harder Mango Punch 23.5oz</t>
+  </si>
+  <si>
+    <t>Mike's Harder Cranberry Lemon 23.5oz</t>
+  </si>
+  <si>
+    <t>Mike's Harder Black Cherry 23.5oz</t>
+  </si>
+  <si>
+    <t>Mike's Harder Lemonade 23.5oz</t>
+  </si>
+  <si>
+    <t>Mike's Harder Strawberry Pineapple 23.5ozs</t>
+  </si>
+  <si>
+    <t>034100013301</t>
+  </si>
+  <si>
+    <t>Happy Thursday Pineapple Starfruit 24oz</t>
+  </si>
+  <si>
+    <t>034100013370</t>
+  </si>
+  <si>
+    <t>849806002661</t>
+  </si>
+  <si>
+    <t>849806004733</t>
+  </si>
+  <si>
+    <t>849806005457</t>
+  </si>
+  <si>
+    <t>810117130305</t>
+  </si>
+  <si>
+    <t>810117130268</t>
+  </si>
+  <si>
+    <t>810117130282</t>
+  </si>
+  <si>
+    <t>815829011331</t>
+  </si>
+  <si>
+    <t>Happy Thursday Strawberry 24oz</t>
+  </si>
+  <si>
+    <t>Four Loko Sour Grape 23.5oz</t>
+  </si>
+  <si>
+    <t>Four Loko USA 23.5oz</t>
+  </si>
+  <si>
+    <t>Four Loko Jungle Juice 23.5oz</t>
+  </si>
+  <si>
+    <t>Monster Beast Peach Perfect 24oz</t>
+  </si>
+  <si>
+    <t>Monster Beast Mean Gren 24oz</t>
+  </si>
+  <si>
+    <t>Monster Beast White Haze 24oz</t>
+  </si>
+  <si>
+    <t>Cayman Jack Margarita 23.5oz</t>
+  </si>
+  <si>
+    <t>602755012606</t>
+  </si>
+  <si>
+    <t>Firestone 805 Cervesa 24oz</t>
+  </si>
+  <si>
+    <t>602755006827</t>
+  </si>
+  <si>
+    <t>Firestone 805 24oz</t>
+  </si>
+  <si>
+    <t>018200284892</t>
+  </si>
+  <si>
+    <t>Estrella Jalisco Golden Road Mango Michelada 25oz</t>
+  </si>
+  <si>
+    <t>018200284021</t>
+  </si>
+  <si>
+    <t>Estrella Jalisco 24oz</t>
+  </si>
+  <si>
+    <t>018200958700</t>
+  </si>
+  <si>
+    <t>Budweiser Chelada Picante 24oz Can</t>
+  </si>
+  <si>
+    <t>018200958717</t>
+  </si>
+  <si>
+    <t>Budweiser Clamato Chelada 24oz Can</t>
+  </si>
+  <si>
+    <t>018200288289</t>
+  </si>
+  <si>
+    <t>Bud Lt Chelada Tajin 24oz Can</t>
+  </si>
+  <si>
+    <t>018200958724</t>
+  </si>
+  <si>
+    <t>Bud Lt Clamato Chelada 24oz Can</t>
+  </si>
+  <si>
+    <t>018200264344</t>
+  </si>
+  <si>
+    <t>Bud Lt Chelada Tajin Pina 24oz</t>
+  </si>
+  <si>
+    <t>033544950241</t>
+  </si>
+  <si>
+    <t>Pacifico 24oz Can</t>
+  </si>
+  <si>
+    <t>080660956459</t>
+  </si>
+  <si>
+    <t>Corona Extra 24oz Can</t>
+  </si>
+  <si>
+    <t>033544000816</t>
+  </si>
+  <si>
+    <t>Modelo Chelada Pina Picante 24oz Can</t>
+  </si>
+  <si>
+    <t>033544001875</t>
+  </si>
+  <si>
+    <t>Modelo Chelada Sandia Picante 24oz Can</t>
+  </si>
+  <si>
+    <t>033544000274</t>
+  </si>
+  <si>
+    <t>Modelo Chelada Mango Chile 24oz Can</t>
+  </si>
+  <si>
+    <t>033544950593</t>
+  </si>
+  <si>
+    <t>Modelo Chelada Limon y Sal 24oz Can</t>
+  </si>
+  <si>
+    <t>080660957913</t>
+  </si>
+  <si>
+    <t>Modelo Especial Chelada 24oz Can</t>
+  </si>
+  <si>
+    <t>033544002315</t>
+  </si>
+  <si>
+    <t>Modelo Fresca Picante 24oz</t>
+  </si>
+  <si>
+    <t>080660957296</t>
+  </si>
+  <si>
+    <t>Modelo Especial 24oz Can</t>
+  </si>
+  <si>
+    <t>033544950623</t>
+  </si>
+  <si>
+    <t>Modelo Negra 24oz Can</t>
+  </si>
   <si>
     <t>033544001646</t>
   </si>
@@ -33,22 +588,124 @@
     <t>Modelo Oro 24oz Can</t>
   </si>
   <si>
-    <t>033544950623</t>
-  </si>
-  <si>
-    <t>Modelo Negra 24oz Can</t>
-  </si>
-  <si>
-    <t>080660957296</t>
-  </si>
-  <si>
-    <t>Modelo Especial 24oz Can</t>
-  </si>
-  <si>
-    <t>072890006691</t>
-  </si>
-  <si>
-    <t>Heineken Silver 24oz</t>
+    <t>089826902248</t>
+  </si>
+  <si>
+    <t>Tecate Light 24oz</t>
+  </si>
+  <si>
+    <t>089826902408</t>
+  </si>
+  <si>
+    <t>Tecate 24oz</t>
+  </si>
+  <si>
+    <t>089826130290</t>
+  </si>
+  <si>
+    <t>Sol Chelada 24oz Can</t>
+  </si>
+  <si>
+    <t>089826230990</t>
+  </si>
+  <si>
+    <t>089826231201</t>
+  </si>
+  <si>
+    <t>089826300419</t>
+  </si>
+  <si>
+    <t>072311321242</t>
+  </si>
+  <si>
+    <t>Dos Equis Michelada 24oz</t>
+  </si>
+  <si>
+    <t>Dos Equis Chelada Pineapple 24oz</t>
+  </si>
+  <si>
+    <t>Dos Equis Salt &amp; Lime 24oz</t>
+  </si>
+  <si>
+    <t>Dos Equis 24oz</t>
+  </si>
+  <si>
+    <t>796030259968</t>
+  </si>
+  <si>
+    <t>Kona Big Wave 25oz</t>
+  </si>
+  <si>
+    <t>018200287404</t>
+  </si>
+  <si>
+    <t>Michelob Ultra Gold 25oz</t>
+  </si>
+  <si>
+    <t>018200255434</t>
+  </si>
+  <si>
+    <t>Bud Light Platinum 25oz</t>
+  </si>
+  <si>
+    <t>018200960116</t>
+  </si>
+  <si>
+    <t>Michelob Ultra 25oz</t>
+  </si>
+  <si>
+    <t>723830051928</t>
+  </si>
+  <si>
+    <t>Lagunitas Maximus 19.2oz</t>
+  </si>
+  <si>
+    <t>723830011922</t>
+  </si>
+  <si>
+    <t>Lagunitas IPA 19.2oz</t>
+  </si>
+  <si>
+    <t>083783375497</t>
+  </si>
+  <si>
+    <t>Sierra Nevada Hazy Little Thing 19.2oz</t>
+  </si>
+  <si>
+    <t>083783381115</t>
+  </si>
+  <si>
+    <t>Sierra Nevada Cosmic Little Thing 19.2oz</t>
+  </si>
+  <si>
+    <t>071990001148</t>
+  </si>
+  <si>
+    <t>Blue Moon 19.2oz</t>
+  </si>
+  <si>
+    <t>602755013047</t>
+  </si>
+  <si>
+    <t>754527012274</t>
+  </si>
+  <si>
+    <t>Voodoo Ranger Tropic Force 19.2oz</t>
+  </si>
+  <si>
+    <t>Firestone Walker Cosmic Crusher 19.2oz</t>
+  </si>
+  <si>
+    <t>754527011710</t>
+  </si>
+  <si>
+    <t>VooDoo Ranger Juice Force 19.2oz</t>
+  </si>
+  <si>
+    <t>754527010218</t>
+  </si>
+  <si>
+    <t>VooDoo Ranger Imperial 19.2oz</t>
   </si>
   <si>
     <t>072890001191</t>
@@ -63,24 +720,18 @@
     <t>Stella Artois 25oz</t>
   </si>
   <si>
-    <t>071990170493</t>
-  </si>
-  <si>
-    <t>Blue Moon 24oz</t>
-  </si>
-  <si>
-    <t>817904006898</t>
-  </si>
-  <si>
-    <t>Elysian Space Dust 19oz</t>
-  </si>
-  <si>
     <t>856229002383</t>
   </si>
   <si>
     <t>San Tan Moonjuice 24oz</t>
   </si>
   <si>
+    <t>815351054318</t>
+  </si>
+  <si>
+    <t>Four Peaks Bad Bird Juice 19.2oz</t>
+  </si>
+  <si>
     <t>815351014213</t>
   </si>
   <si>
@@ -99,34 +750,76 @@
     <t>Four Peaks Kiltlifter 25oz</t>
   </si>
   <si>
-    <t>018200960123</t>
-  </si>
-  <si>
-    <t>Bud Light Lime 25oz</t>
-  </si>
-  <si>
-    <t>018200255434</t>
-  </si>
-  <si>
-    <t>Bud Light Platinum 25oz</t>
-  </si>
-  <si>
-    <t>018200284809</t>
-  </si>
-  <si>
-    <t>Michelob Ultra Lime 25oz</t>
-  </si>
-  <si>
-    <t>018200287404</t>
-  </si>
-  <si>
-    <t>Michelob Ultra Gold 25oz</t>
-  </si>
-  <si>
-    <t>018200960116</t>
-  </si>
-  <si>
-    <t>Michelob Ultra 25oz</t>
+    <t>034100000059</t>
+  </si>
+  <si>
+    <t>Miller High Life 24oz</t>
+  </si>
+  <si>
+    <t>034100002176</t>
+  </si>
+  <si>
+    <t>Mickey's 24oz</t>
+  </si>
+  <si>
+    <t>018200960109</t>
+  </si>
+  <si>
+    <t>Hurricane High Gravity 24oz</t>
+  </si>
+  <si>
+    <t>022100112094</t>
+  </si>
+  <si>
+    <t>Pabst 24oz</t>
+  </si>
+  <si>
+    <t>018200372513</t>
+  </si>
+  <si>
+    <t>Budweiser Ice 24oz</t>
+  </si>
+  <si>
+    <t>018200960093</t>
+  </si>
+  <si>
+    <t>Natty Daddy 24oz</t>
+  </si>
+  <si>
+    <t>018200152511</t>
+  </si>
+  <si>
+    <t>Natural Light 24oz</t>
+  </si>
+  <si>
+    <t>078250003287</t>
+  </si>
+  <si>
+    <t>Steel Reserve 24oz</t>
+  </si>
+  <si>
+    <t>078250006141</t>
+  </si>
+  <si>
+    <t>Steel Alloy Pineapple 24oz</t>
+  </si>
+  <si>
+    <t>034100003555</t>
+  </si>
+  <si>
+    <t>Miller Lite 24oz</t>
+  </si>
+  <si>
+    <t>071990100711</t>
+  </si>
+  <si>
+    <t>Coors 24oz</t>
+  </si>
+  <si>
+    <t>071990300654</t>
+  </si>
+  <si>
+    <t>Coors Light 24oz</t>
   </si>
   <si>
     <t>018200112515</t>
@@ -141,502 +834,52 @@
     <t>Bud Light 25oz</t>
   </si>
   <si>
-    <t>034100003555</t>
-  </si>
-  <si>
-    <t>Miller Lite 24oz</t>
-  </si>
-  <si>
-    <t>071990100711</t>
-  </si>
-  <si>
-    <t>Coors 24oz</t>
-  </si>
-  <si>
-    <t>071990300654</t>
-  </si>
-  <si>
-    <t>Coors Light 24oz</t>
-  </si>
-  <si>
-    <t>089826902408</t>
-  </si>
-  <si>
-    <t>Tecate 24oz</t>
-  </si>
-  <si>
-    <t>089826902248</t>
-  </si>
-  <si>
-    <t>Tecate Light 24oz</t>
-  </si>
-  <si>
-    <t>723830051928</t>
-  </si>
-  <si>
-    <t>Lagunitas Maximus 19.2oz</t>
-  </si>
-  <si>
-    <t>723830011922</t>
-  </si>
-  <si>
-    <t>Lagunitas IPA 19.2oz</t>
-  </si>
-  <si>
-    <t>754527011710</t>
-  </si>
-  <si>
-    <t>VooDoo Ranger Juice Force 19.2oz</t>
-  </si>
-  <si>
-    <t>754527010218</t>
-  </si>
-  <si>
-    <t>VooDoo Ranger Imperial 19.2oz</t>
-  </si>
-  <si>
-    <t>078250006059</t>
-  </si>
-  <si>
-    <t>Steel Alloy Blackberry 24oz</t>
-  </si>
-  <si>
-    <t>078250006288</t>
-  </si>
-  <si>
-    <t>Steel Alloy Blue Raspberry 24oz</t>
-  </si>
-  <si>
-    <t>078250006141</t>
-  </si>
-  <si>
-    <t>Steel Alloy Pineapple 24oz</t>
-  </si>
-  <si>
-    <t>078250003287</t>
-  </si>
-  <si>
-    <t>Steel Reserve 24oz</t>
-  </si>
-  <si>
-    <t>018200960109</t>
-  </si>
-  <si>
-    <t>Hurricane High Gravity 24oz</t>
-  </si>
-  <si>
-    <t>083783381054</t>
-  </si>
-  <si>
-    <t>Sierra Nevada Pale Ale 19.2oz</t>
-  </si>
-  <si>
-    <t>602755010398</t>
-  </si>
-  <si>
-    <t>Firestone Mind Haze 19.2oz</t>
-  </si>
-  <si>
-    <t>636251744662</t>
-  </si>
-  <si>
-    <t>Stone Delicious 19.2oz</t>
-  </si>
-  <si>
-    <t>859612001741</t>
-  </si>
-  <si>
-    <t>21st Amendment Blood Orange 19.2oz</t>
-  </si>
-  <si>
-    <t>034100002176</t>
-  </si>
-  <si>
-    <t>Mickey's 24oz</t>
-  </si>
-  <si>
-    <t>071439757001</t>
-  </si>
-  <si>
-    <t>Rolling Rock 24oz</t>
-  </si>
-  <si>
-    <t>034100000059</t>
-  </si>
-  <si>
-    <t>Miller High Life 24oz</t>
-  </si>
-  <si>
-    <t>034100623463</t>
-  </si>
-  <si>
-    <t>Miller Icehouse 24oz</t>
-  </si>
-  <si>
-    <t>018200862519</t>
-  </si>
-  <si>
-    <t>Busch Light 24oz</t>
-  </si>
-  <si>
-    <t>018200372513</t>
-  </si>
-  <si>
-    <t>Budweiser Ice 24oz</t>
-  </si>
-  <si>
-    <t>018200960093</t>
-  </si>
-  <si>
-    <t>Natty Daddy 24oz</t>
-  </si>
-  <si>
-    <t>018200152511</t>
-  </si>
-  <si>
-    <t>Natural Light 24oz</t>
-  </si>
-  <si>
-    <t>018200284021</t>
-  </si>
-  <si>
-    <t>Estrella Jalisco 24oz Can</t>
-  </si>
-  <si>
-    <t>018200284892</t>
-  </si>
-  <si>
-    <t>Estrella Jalisco Mango 24oz Can</t>
-  </si>
-  <si>
-    <t>018200958717</t>
-  </si>
-  <si>
-    <t>Budweiser Clamato Chelada 24oz Can</t>
-  </si>
-  <si>
-    <t>018200291449</t>
-  </si>
-  <si>
-    <t>Bud Lt Chelada Mango 24oz Can</t>
-  </si>
-  <si>
-    <t>018200958700</t>
-  </si>
-  <si>
-    <t>Budweiser Chelada Picante 24oz Can</t>
-  </si>
-  <si>
-    <t>018200288289</t>
-  </si>
-  <si>
-    <t>Bud Lt Chelada Tajin 24oz Can</t>
-  </si>
-  <si>
-    <t>018200958724</t>
-  </si>
-  <si>
-    <t>Bud Lt Clamato Chelada 24oz Can</t>
-  </si>
-  <si>
-    <t>033544950241</t>
-  </si>
-  <si>
-    <t>Pacifico 24oz Can</t>
-  </si>
-  <si>
-    <t>080660956459</t>
-  </si>
-  <si>
-    <t>Corona Extra 24oz Can</t>
-  </si>
-  <si>
-    <t>033544000816</t>
-  </si>
-  <si>
-    <t>Modelo Chelada Pina Picante 24oz Can</t>
-  </si>
-  <si>
-    <t>033544001875</t>
-  </si>
-  <si>
-    <t>Modelo Chelada Sandia Picante 24oz Can</t>
-  </si>
-  <si>
-    <t>033544000274</t>
-  </si>
-  <si>
-    <t>Modelo Chelada Mango Chile 24oz Can</t>
-  </si>
-  <si>
-    <t>033544950593</t>
-  </si>
-  <si>
-    <t>Modelo Chelada Limon y Sal 24oz Can</t>
-  </si>
-  <si>
-    <t>080660957913</t>
-  </si>
-  <si>
-    <t>Modelo Especial Chelada 24oz Can</t>
-  </si>
-  <si>
-    <t>089826130290</t>
-  </si>
-  <si>
-    <t>Sol Chelada 24oz Can</t>
-  </si>
-  <si>
-    <t>089826130436</t>
-  </si>
-  <si>
-    <t>Sol Mango y Chamoy 24oz Can</t>
-  </si>
-  <si>
-    <t>033544001745</t>
-  </si>
-  <si>
-    <t>Vicky Chamoy 24oz Can</t>
-  </si>
-  <si>
-    <t>851133006158</t>
-  </si>
-  <si>
-    <t>Beatbox Pink Lemonade 16.9oz</t>
-  </si>
-  <si>
-    <t>851133006127</t>
-  </si>
-  <si>
-    <t>Beatbox Fruit Punch 16.9oz</t>
-  </si>
-  <si>
-    <t>851133006349</t>
-  </si>
-  <si>
-    <t>Beatbox Tropical 16.9oz</t>
-  </si>
-  <si>
-    <t>851133006134</t>
-  </si>
-  <si>
-    <t>Beatbox Blue Razzberry 16.9oz</t>
-  </si>
-  <si>
-    <t>018200264092</t>
-  </si>
-  <si>
-    <t>Cantaritos Pineapple 25oz</t>
-  </si>
-  <si>
-    <t>018200263941</t>
-  </si>
-  <si>
-    <t>849806002661</t>
-  </si>
-  <si>
-    <t>Four Loko Sour Grape 23.5oz</t>
-  </si>
-  <si>
-    <t>849806001176</t>
-  </si>
-  <si>
-    <t>Four Loko Gold 23.5oz</t>
-  </si>
-  <si>
-    <t>849806004733</t>
-  </si>
-  <si>
-    <t>Four Loko USA 23.5oz</t>
-  </si>
-  <si>
-    <t>635985132158</t>
-  </si>
-  <si>
-    <t>Mike's Harder Black Cherry 23.5oz</t>
-  </si>
-  <si>
-    <t>635985249863</t>
-  </si>
-  <si>
-    <t>Mike's Harder Cranberry 23.5oz</t>
-  </si>
-  <si>
-    <t>635985245834</t>
-  </si>
-  <si>
-    <t>Mike's Harder Lemonade 23.5oz</t>
-  </si>
-  <si>
-    <t>635985132172</t>
-  </si>
-  <si>
-    <t>Mike's Harder Strawberry Pineapple 23.5oz</t>
-  </si>
-  <si>
-    <t>087692009528</t>
-  </si>
-  <si>
-    <t>Truly Wild Berry 24oz</t>
-  </si>
-  <si>
-    <t>087692011712</t>
-  </si>
-  <si>
-    <t>Truly Strawberry Lemonade 24oz</t>
-  </si>
-  <si>
-    <t>087692009726</t>
-  </si>
-  <si>
-    <t>Truly Pineapple 24oz</t>
-  </si>
-  <si>
-    <t>018200288692</t>
-  </si>
-  <si>
-    <t>Michelob Ultra Cucumber Lime 25oz</t>
-  </si>
-  <si>
-    <t>635985802181</t>
-  </si>
-  <si>
-    <t>White Claw Strawberry 19.2oz</t>
-  </si>
-  <si>
-    <t>635985802068</t>
-  </si>
-  <si>
-    <t>White Claw Watermelon 19.2oz</t>
-  </si>
-  <si>
-    <t>635985802167</t>
-  </si>
-  <si>
-    <t>White Claw Mango 19.2oz</t>
-  </si>
-  <si>
-    <t>635985802174</t>
-  </si>
-  <si>
-    <t>White Claw Grapefruit 19.2oz</t>
-  </si>
-  <si>
-    <t>635985802020</t>
-  </si>
-  <si>
-    <t>White Claw Black Cherry 19.2oz</t>
-  </si>
-  <si>
-    <t>072311321242</t>
-  </si>
-  <si>
-    <t>Dos Equis 24oz</t>
-  </si>
-  <si>
-    <t>089826300419</t>
-  </si>
-  <si>
-    <t>Dos Equis Salt &amp; Lime 24oz</t>
-  </si>
-  <si>
-    <t>602755012606</t>
-  </si>
-  <si>
-    <t>Firestone 805 Cervesa 24oz</t>
-  </si>
-  <si>
-    <t>602755006827</t>
-  </si>
-  <si>
-    <t>Firestone 805 24oz</t>
-  </si>
-  <si>
-    <t>083783375558</t>
-  </si>
-  <si>
-    <t>Sierra Nevada Big Little Thing 19.2oz</t>
-  </si>
-  <si>
-    <t>083783375497</t>
-  </si>
-  <si>
-    <t>Sierra Nevada Hazy Little Thing 19.2oz</t>
-  </si>
-  <si>
-    <t>815351054318</t>
-  </si>
-  <si>
-    <t>Four Peaks Bad Bird Juice 19.2oz</t>
-  </si>
-  <si>
-    <t>018200287640</t>
-  </si>
-  <si>
-    <t>Bud Light Platinum Seltzer Wild Berry 25oz</t>
-  </si>
-  <si>
-    <t>796030259968</t>
-  </si>
-  <si>
-    <t>Kona Big Wave 25oz</t>
-  </si>
-  <si>
-    <t>085000005422</t>
-  </si>
-  <si>
-    <t>Gallo Chardonnay 187ml</t>
-  </si>
-  <si>
-    <t>082734001195</t>
-  </si>
-  <si>
-    <t>Frontera Cabernet Merlot 187ml</t>
-  </si>
-  <si>
-    <t>085000005941</t>
-  </si>
-  <si>
-    <t>Barefoot Pink Moscato 187ml</t>
-  </si>
-  <si>
-    <t>085000005361</t>
-  </si>
-  <si>
-    <t>Barefoot Chardonnay 187ml</t>
-  </si>
-  <si>
-    <t>085000005286</t>
-  </si>
-  <si>
-    <t>Barefoot Pinot Grigio 187ml</t>
-  </si>
-  <si>
-    <t>085000026809</t>
-  </si>
-  <si>
-    <t>Liberty Creek Pink Moscato 500ml</t>
-  </si>
-  <si>
-    <t>085000026816</t>
-  </si>
-  <si>
-    <t>Liberty Creek Sweet Red 500ml</t>
-  </si>
-  <si>
-    <t>085000022710</t>
-  </si>
-  <si>
-    <t>Liberty Creek Pino Grigio 500ml</t>
-  </si>
-  <si>
-    <t>085000021828</t>
-  </si>
-  <si>
-    <t>085000021812</t>
-  </si>
-  <si>
-    <t>Liberty Creek Chardonnay 500ml</t>
+    <t>034100576288</t>
+  </si>
+  <si>
+    <t>071990301200</t>
+  </si>
+  <si>
+    <t>018200111921</t>
+  </si>
+  <si>
+    <t>018200531927</t>
+  </si>
+  <si>
+    <t>018200140433</t>
+  </si>
+  <si>
+    <t>080660957746</t>
+  </si>
+  <si>
+    <t>Miller Lite 24oz 3pk</t>
+  </si>
+  <si>
+    <t>Coors Light 24oz 3pk</t>
+  </si>
+  <si>
+    <t>Budweiser 25oz 3pk</t>
+  </si>
+  <si>
+    <t>Bud Lt 25oz 3pk</t>
+  </si>
+  <si>
+    <t>Michelob Ultra 25oz 3pk</t>
+  </si>
+  <si>
+    <t>Modelo 24oz 3pk</t>
+  </si>
+  <si>
+    <t>071990480455</t>
+  </si>
+  <si>
+    <t>Keystone Light 12oz Can 15pk</t>
+  </si>
+  <si>
+    <t>018200862489</t>
+  </si>
+  <si>
+    <t>Busch Light 12oz Can 12pk</t>
   </si>
   <si>
     <t>022100001701</t>
@@ -651,136 +894,52 @@
     <t>Natty Daddy 12oz Can 15pk</t>
   </si>
   <si>
-    <t>018200284434</t>
-  </si>
-  <si>
-    <t>Natural Ice 12oz Can 15pk</t>
-  </si>
-  <si>
     <t>018200200779</t>
   </si>
   <si>
     <t>Natural Light 12oz Can 15pk</t>
   </si>
   <si>
-    <t>071990480455</t>
-  </si>
-  <si>
-    <t>Keystone Light 12oz Can 15pk</t>
-  </si>
-  <si>
-    <t>034100003234</t>
-  </si>
-  <si>
-    <t>Redd's Wicked Apple 24oz</t>
-  </si>
-  <si>
-    <t>087692005407</t>
-  </si>
-  <si>
-    <t>Angry Orchard 24oz</t>
-  </si>
-  <si>
-    <t>810078780984</t>
-  </si>
-  <si>
-    <t>Simply Spiked Peach 24oz</t>
-  </si>
-  <si>
-    <t>810078780199</t>
-  </si>
-  <si>
-    <t>Simply Spiked Lemonade 24oz</t>
-  </si>
-  <si>
-    <t>087692005056</t>
-  </si>
-  <si>
-    <t>Twisted Tea Peach 24oz</t>
-  </si>
-  <si>
-    <t>087692852131</t>
-  </si>
-  <si>
-    <t>Twisted Tea Raspberry 24oz</t>
-  </si>
-  <si>
-    <t>087692015918</t>
-  </si>
-  <si>
-    <t>Twisted Tea Mangonada 24oz</t>
-  </si>
-  <si>
-    <t>087692752134</t>
-  </si>
-  <si>
-    <t>Twisted Tea Half &amp; Half 24oz</t>
-  </si>
-  <si>
-    <t>087692832133</t>
-  </si>
-  <si>
-    <t>Twisted Tea Lemon 24oz</t>
-  </si>
-  <si>
-    <t>082000776956</t>
-  </si>
-  <si>
-    <t>Smirnoff Smash Screwdriver 16oz</t>
-  </si>
-  <si>
-    <t>082000799023</t>
-  </si>
-  <si>
-    <t>Smirnoff Smash Pink Lemonade 16oz</t>
-  </si>
-  <si>
-    <t>082000795216</t>
-  </si>
-  <si>
-    <t>Smirnoff Smash Red White &amp; Blue 16oz</t>
-  </si>
-  <si>
-    <t>684746400067</t>
-  </si>
-  <si>
-    <t>Clubtails Bahama Mama 16oz</t>
-  </si>
-  <si>
-    <t>684746800416</t>
-  </si>
-  <si>
-    <t>Clubtails Long Island Tea 16oz</t>
-  </si>
-  <si>
-    <t>684746400074</t>
-  </si>
-  <si>
-    <t>Clubtails Sex On The Beach 16oz</t>
-  </si>
-  <si>
-    <t>634985245950</t>
-  </si>
-  <si>
-    <t>Mike's Harder Seasonal 16oz</t>
-  </si>
-  <si>
-    <t>635985132196</t>
-  </si>
-  <si>
-    <t>Mike's Harder Strawberry Lemonade 16oz</t>
-  </si>
-  <si>
-    <t>369895249858</t>
-  </si>
-  <si>
-    <t>Mike's Harder Cranberry 16oz</t>
-  </si>
-  <si>
-    <t>635985258759</t>
-  </si>
-  <si>
-    <t>Mike's Harder Lemonade 16oz</t>
+    <t>034100015091</t>
+  </si>
+  <si>
+    <t>Miller High Life 12oz Btl 12pk</t>
+  </si>
+  <si>
+    <t>071990000486</t>
+  </si>
+  <si>
+    <t>Coors Light 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>071990000479</t>
+  </si>
+  <si>
+    <t>Coors 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>071990386429</t>
+  </si>
+  <si>
+    <t>Coors Aluminum 16oz 15pk</t>
+  </si>
+  <si>
+    <t>071990095277</t>
+  </si>
+  <si>
+    <t>Coors Light Aluminum 16oz 15pk</t>
+  </si>
+  <si>
+    <t>071990300784</t>
+  </si>
+  <si>
+    <t>Coors Light 12oz Btl 18pk</t>
+  </si>
+  <si>
+    <t>071990100209</t>
+  </si>
+  <si>
+    <t>Coors 12oz Can 18pk</t>
   </si>
   <si>
     <t>071990170370</t>
@@ -789,22 +948,82 @@
     <t>Coors 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>071990000479</t>
-  </si>
-  <si>
-    <t>Coors 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>034100576530</t>
-  </si>
-  <si>
-    <t>Miler Lite 16oz Can 12pk</t>
-  </si>
-  <si>
-    <t>071990095284</t>
-  </si>
-  <si>
-    <t>Coors Light 16oz Can 12pk</t>
+    <t>071990300173</t>
+  </si>
+  <si>
+    <t>Coors Light 12oz Can 18pk</t>
+  </si>
+  <si>
+    <t>071990300692</t>
+  </si>
+  <si>
+    <t>Coors Light 12oz Btl 12pk</t>
+  </si>
+  <si>
+    <t>071990300050</t>
+  </si>
+  <si>
+    <t>Coors Light 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>034100155056</t>
+  </si>
+  <si>
+    <t>Miller 64 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>018200110368</t>
+  </si>
+  <si>
+    <t>Budweiser 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>018200530364</t>
+  </si>
+  <si>
+    <t>Bud Light 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>034100577070</t>
+  </si>
+  <si>
+    <t>Miler Lite Aluminum 16oz 15pk</t>
+  </si>
+  <si>
+    <t>018200113604</t>
+  </si>
+  <si>
+    <t>Budweiser 12oz Btl 12pk</t>
+  </si>
+  <si>
+    <t>018200283659</t>
+  </si>
+  <si>
+    <t>Bud Zero 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>018200961182</t>
+  </si>
+  <si>
+    <t>Bud Light Platinum 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>034100576363</t>
+  </si>
+  <si>
+    <t>Miler Lite 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>018200113086</t>
+  </si>
+  <si>
+    <t>Budweiser 12oz Btl 18pk</t>
+  </si>
+  <si>
+    <t>018200961199</t>
+  </si>
+  <si>
+    <t>Bud Light Platinum 12oz Btl 12pk</t>
   </si>
   <si>
     <t>034100575090</t>
@@ -813,64 +1032,10 @@
     <t>Miler Lite 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>034100576363</t>
-  </si>
-  <si>
-    <t>Miler Lite 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>071990300050</t>
-  </si>
-  <si>
-    <t>Coors Light 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>071990300692</t>
-  </si>
-  <si>
-    <t>Coors Light 12oz Btl 12pk</t>
-  </si>
-  <si>
-    <t>034100577070</t>
-  </si>
-  <si>
-    <t>Miler Lite Aluminum 16oz 15pk</t>
-  </si>
-  <si>
-    <t>071990386429</t>
-  </si>
-  <si>
-    <t>Coors Aluminum 16oz 15pk</t>
-  </si>
-  <si>
-    <t>071990095277</t>
-  </si>
-  <si>
-    <t>Coors Light Aluminum 16oz 15pk</t>
-  </si>
-  <si>
-    <t>071990100209</t>
-  </si>
-  <si>
-    <t>Coors 12oz Can 18pk</t>
-  </si>
-  <si>
-    <t>071990300173</t>
-  </si>
-  <si>
-    <t>Coors Light 12oz Can 18pk</t>
-  </si>
-  <si>
-    <t>071990000486</t>
-  </si>
-  <si>
-    <t>Coors Light 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>034100015091</t>
-  </si>
-  <si>
-    <t>Miller High Life 12oz Btl 12pk</t>
+    <t>018200532467</t>
+  </si>
+  <si>
+    <t>Bud Light 12oz Can 12pk</t>
   </si>
   <si>
     <t>034100573409</t>
@@ -879,52 +1044,28 @@
     <t>Miler Lite 12oz Can 18pk</t>
   </si>
   <si>
-    <t>071990300784</t>
-  </si>
-  <si>
-    <t>Coors Light 12oz Btl 18pk</t>
-  </si>
-  <si>
-    <t>018200110368</t>
-  </si>
-  <si>
-    <t>Budweiser 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>018200530364</t>
-  </si>
-  <si>
-    <t>Bud Light 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>083820104011</t>
-  </si>
-  <si>
-    <t>Guinness 11.2oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>087692300502</t>
-  </si>
-  <si>
-    <t>Samuel Adams Seasonal 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>018200862489</t>
-  </si>
-  <si>
-    <t>Busch Light 12oz Can 12pk</t>
-  </si>
-  <si>
     <t>018200112461</t>
   </si>
   <si>
     <t>Budweiser 12oz Can 12pk</t>
   </si>
   <si>
-    <t>018200532467</t>
-  </si>
-  <si>
-    <t>Bud Light 12oz Can 12pk</t>
+    <t>018200112188</t>
+  </si>
+  <si>
+    <t>Budweiser 12oz Can 18pk</t>
+  </si>
+  <si>
+    <t>018200532184</t>
+  </si>
+  <si>
+    <t>Bud Light 12oz Can 18pk</t>
+  </si>
+  <si>
+    <t>018200531682</t>
+  </si>
+  <si>
+    <t>Bud Light 12oz Can 24pk</t>
   </si>
   <si>
     <t>018200533600</t>
@@ -933,16 +1074,10 @@
     <t>Bud Light 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>018200113604</t>
-  </si>
-  <si>
-    <t>Budweiser 12oz Btl 12pk</t>
-  </si>
-  <si>
-    <t>018200113086</t>
-  </si>
-  <si>
-    <t>Budweiser 12oz Btl 18pk</t>
+    <t>018200533495</t>
+  </si>
+  <si>
+    <t>Bud Light 12oz Btl 24pk</t>
   </si>
   <si>
     <t>018200533082</t>
@@ -951,82 +1086,97 @@
     <t>Bud Light 12oz Btl 18pk</t>
   </si>
   <si>
-    <t>018200113499</t>
-  </si>
-  <si>
-    <t>Budweiser 12oz Btl 24pk</t>
-  </si>
-  <si>
-    <t>018200533495</t>
-  </si>
-  <si>
-    <t>Bud Light 12oz Btl 24pk</t>
-  </si>
-  <si>
-    <t>018200112188</t>
-  </si>
-  <si>
-    <t>Budweiser 12oz Can 18pk</t>
-  </si>
-  <si>
-    <t>018200532184</t>
-  </si>
-  <si>
-    <t>Bud Light 12oz Can 18pk</t>
-  </si>
-  <si>
-    <t>018200531682</t>
-  </si>
-  <si>
-    <t>Bud Light 12oz Can 24pk</t>
-  </si>
-  <si>
-    <t>018200283659</t>
-  </si>
-  <si>
-    <t>Bud Zero 12oz Can 12pk</t>
-  </si>
-  <si>
     <t>763176120070</t>
   </si>
   <si>
     <t>Deschutess Fresh Squeezed 12oz Can 6pk</t>
   </si>
   <si>
+    <t>602755009514</t>
+  </si>
+  <si>
+    <t>Firestone Mind Haze 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>636251746277</t>
+  </si>
+  <si>
+    <t>Stone Delicious Mixed 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>083783110104</t>
+  </si>
+  <si>
+    <t>Sierra Nevada Hazy 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>866160000102</t>
+  </si>
+  <si>
+    <t>Papago Orange Blosson 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>859599003110</t>
+  </si>
+  <si>
+    <t>College St Big Blue Van Can 6pk</t>
+  </si>
+  <si>
+    <t>754527006525</t>
+  </si>
+  <si>
+    <t>VooDoo Ranger Tropic Force 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>754527011727</t>
+  </si>
+  <si>
+    <t>VooDoo Ranger Juice Force Can 6pk</t>
+  </si>
+  <si>
+    <t>856229002215</t>
+  </si>
+  <si>
+    <t>San Tan Moonjuice 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>851755006416</t>
+  </si>
+  <si>
+    <t>Huss Dry Hop West Coast IPA 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>857213003287</t>
+  </si>
+  <si>
+    <t>Mother Road Tower Station 16oz Can 4pk</t>
+  </si>
+  <si>
     <t>860003520307</t>
   </si>
   <si>
-    <t>The Shop Church Music 16oz 4pk</t>
-  </si>
-  <si>
     <t>723830212121</t>
   </si>
   <si>
     <t>Lagunitas IPA 12oz Can 12pk</t>
   </si>
   <si>
-    <t>857213003574</t>
-  </si>
-  <si>
-    <t>Tower Station 12pk Can 12oz</t>
-  </si>
-  <si>
-    <t>083783275247</t>
-  </si>
-  <si>
-    <t>Sierra Nevada Pale Ale 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>602755006353</t>
-  </si>
-  <si>
-    <t>Firestone 805 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>796030014963</t>
-  </si>
-  <si>
-    <t>Kona Big Wave 12oz Btl 6pk</t>
+    <t>681745001455</t>
+  </si>
+  <si>
+    <t>Four Peaks Wow Wheat 12oz Can 15pk</t>
+  </si>
+  <si>
+    <t>815351054257</t>
+  </si>
+  <si>
+    <t>Four Peaks Bad Bird Juice 12oz Can 15pk</t>
+  </si>
+  <si>
+    <t>815351001251</t>
+  </si>
+  <si>
+    <t>Four Peaks Kiltlifter 12oz Can 15pk</t>
   </si>
   <si>
     <t>796030824968</t>
@@ -1041,16 +1191,40 @@
     <t>Blue Moon 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>018200961182</t>
-  </si>
-  <si>
-    <t>Bud Light Platinum 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>018200961199</t>
-  </si>
-  <si>
-    <t>Bud Light Platinum 12oz Btl 12pk</t>
+    <t>018200967702</t>
+  </si>
+  <si>
+    <t>Michelob Ultra 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>018200284243</t>
+  </si>
+  <si>
+    <t>Michelob Ultra Gold 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>018200284236</t>
+  </si>
+  <si>
+    <t>Michelob Ultra Gold 12oz Btl 12pk</t>
+  </si>
+  <si>
+    <t>018200291814</t>
+  </si>
+  <si>
+    <t>Michelob Ultra 8oz Can 12pk</t>
+  </si>
+  <si>
+    <t>018200967214</t>
+  </si>
+  <si>
+    <t>Michelob Ultra 12oz Can 18pk</t>
+  </si>
+  <si>
+    <t>018200967313</t>
+  </si>
+  <si>
+    <t>Michelob Ultra 12oz Can 12pk</t>
   </si>
   <si>
     <t>018200140051</t>
@@ -1059,30 +1233,6 @@
     <t>Michelob Ultra 16oz Can 8pk</t>
   </si>
   <si>
-    <t>018200962240</t>
-  </si>
-  <si>
-    <t>Michelob Ultra Cucumber 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>018200967702</t>
-  </si>
-  <si>
-    <t>Michelob Ultra 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>018200284243</t>
-  </si>
-  <si>
-    <t>Michelob Ultra Gold 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>018200284236</t>
-  </si>
-  <si>
-    <t>Michelob Ultra Gold 12oz Btl 12pk</t>
-  </si>
-  <si>
     <t>018200967696</t>
   </si>
   <si>
@@ -1095,49 +1245,154 @@
     <t>Michelob Ultra 12oz Btl 18pk</t>
   </si>
   <si>
-    <t>018200967313</t>
-  </si>
-  <si>
-    <t>Michelob Ultra 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>018200967214</t>
-  </si>
-  <si>
-    <t>Michelob Ultra 12oz Can 18pk</t>
-  </si>
-  <si>
     <t>018200967153</t>
   </si>
   <si>
     <t>Michelob Ultra 12oz Can 24pk</t>
   </si>
   <si>
-    <t>866160000102</t>
-  </si>
-  <si>
-    <t>859599003110</t>
-  </si>
-  <si>
-    <t>College St Big Blue Van Can 6pk</t>
-  </si>
-  <si>
-    <t>636251743368</t>
-  </si>
-  <si>
-    <t>Stone IPA 12oz Can 6pk</t>
-  </si>
-  <si>
-    <t>602755009514</t>
-  </si>
-  <si>
-    <t>Firestone Mind Haze 12oz Can 6pk</t>
-  </si>
-  <si>
-    <t>083783110104</t>
-  </si>
-  <si>
-    <t>Sierra Nevada Hazy 12oz Can 6pk</t>
+    <t>021136180879</t>
+  </si>
+  <si>
+    <t>Topo Chico Seltzer Variety 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>087692006862</t>
+  </si>
+  <si>
+    <t>Truly Berry Variety 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>087692018506</t>
+  </si>
+  <si>
+    <t>Truly Party Pack 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>087692009924</t>
+  </si>
+  <si>
+    <t>Truly Lemonade Variety 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>635985800262</t>
+  </si>
+  <si>
+    <t>White Claw Variety #3 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>635985800064</t>
+  </si>
+  <si>
+    <t>White Claw Variety #2 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>635985548904</t>
+  </si>
+  <si>
+    <t>White Claw Variety #1 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>851133006502</t>
+  </si>
+  <si>
+    <t>Beatbox Variety 6pk 500mL</t>
+  </si>
+  <si>
+    <t>810078780205</t>
+  </si>
+  <si>
+    <t>Simply Spiked Variety 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>635985129981</t>
+  </si>
+  <si>
+    <t>Mike's Variety 12oz Btl 12pk</t>
+  </si>
+  <si>
+    <t>635985224136</t>
+  </si>
+  <si>
+    <t>Mike's Strawberry Lemonade 11.2oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>082000778219</t>
+  </si>
+  <si>
+    <t>Smirnoff Ice 11oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>087692821021</t>
+  </si>
+  <si>
+    <t>Angry Orchard 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>754527012359</t>
+  </si>
+  <si>
+    <t>New Belgium Hardcharged Lemon 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>087692003786</t>
+  </si>
+  <si>
+    <t>Twisted Tea Variety 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>087692751342</t>
+  </si>
+  <si>
+    <t>Twisted Tea Half &amp; Half 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>087692831341</t>
+  </si>
+  <si>
+    <t>Twisted Tea 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>087692831044</t>
+  </si>
+  <si>
+    <t>Twisted Tea 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>815829010068</t>
+  </si>
+  <si>
+    <t>Cayman Jack Margarita 11.2oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>815829011591</t>
+  </si>
+  <si>
+    <t>Cayman Jack Margarita Variety 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>033544002001</t>
+  </si>
+  <si>
+    <t>Modelo Aguas Frescas 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>810117130329</t>
+  </si>
+  <si>
+    <t>Monster Nasty Beast Variety 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>083820123609</t>
+  </si>
+  <si>
+    <t>Guinness 14.9oz Can 4pk</t>
+  </si>
+  <si>
+    <t>786150000021</t>
+  </si>
+  <si>
+    <t>Stella Artois 11.2oz Btl 6pk</t>
   </si>
   <si>
     <t>786150000151</t>
@@ -1146,37 +1401,16 @@
     <t>Stella Artois 11.2oz Btl 12pk</t>
   </si>
   <si>
-    <t>786150000021</t>
-  </si>
-  <si>
-    <t>Stella Artois 11.2oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>681745001455</t>
-  </si>
-  <si>
-    <t>Four Peaks Wow Wheat 12oz Can 15pk</t>
-  </si>
-  <si>
-    <t>815351014015</t>
-  </si>
-  <si>
-    <t>Four Peaks Wow Wheat 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>815351054257</t>
-  </si>
-  <si>
-    <t>087692006862</t>
-  </si>
-  <si>
-    <t>Truly Berry Variety 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>087692009924</t>
-  </si>
-  <si>
-    <t>Truly Lemonade Variety 12oz Can 12pk</t>
+    <t>089826901180</t>
+  </si>
+  <si>
+    <t>Tecate Light 12oz Can 18pk</t>
+  </si>
+  <si>
+    <t>Dos Equis 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>072311330121</t>
   </si>
   <si>
     <t>072890000163</t>
@@ -1185,34 +1419,76 @@
     <t>Heineken 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>815351001251</t>
-  </si>
-  <si>
-    <t>Four Peaks Kiltlifter 12oz Can 15pk</t>
-  </si>
-  <si>
-    <t>635985800262</t>
-  </si>
-  <si>
-    <t>White Claw Variety #3 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>635985800064</t>
-  </si>
-  <si>
-    <t>White Claw Variety #2 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>635985548904</t>
-  </si>
-  <si>
-    <t>White Claw Variety #1 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>072890006721</t>
-  </si>
-  <si>
-    <t>Heineken Silver 12oz Can 12pk</t>
+    <t>089826900039</t>
+  </si>
+  <si>
+    <t>Tecate 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>089826900237</t>
+  </si>
+  <si>
+    <t>Tecate Light 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>072311230186</t>
+  </si>
+  <si>
+    <t>Dos Equis 12oz Btl 18pk</t>
+  </si>
+  <si>
+    <t>080660956091</t>
+  </si>
+  <si>
+    <t>Corona Extra 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>033544002094</t>
+  </si>
+  <si>
+    <t>Modelo Especial 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>080660957661</t>
+  </si>
+  <si>
+    <t>Modelo Especial 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>033544001844</t>
+  </si>
+  <si>
+    <t>Corona NA 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>033544950586</t>
+  </si>
+  <si>
+    <t>Corona Premier 12oz Btl 12pk</t>
+  </si>
+  <si>
+    <t>033544950326</t>
+  </si>
+  <si>
+    <t>Pacifico 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>080660953199</t>
+  </si>
+  <si>
+    <t>Pacifico 12oz Btl 12pk</t>
+  </si>
+  <si>
+    <t>033544001295</t>
+  </si>
+  <si>
+    <t>Modelo Chelada Lemon y Sal 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>080660957197</t>
+  </si>
+  <si>
+    <t>Modelo Especial 12oz Can 12pk</t>
   </si>
   <si>
     <t>072311930123</t>
@@ -1221,130 +1497,22 @@
     <t>Dos Equis 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>810078780205</t>
-  </si>
-  <si>
-    <t>Simply Spiked Variety 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>018200203909</t>
-  </si>
-  <si>
-    <t>Cantaritos Variety 12oz Btl 12pk</t>
-  </si>
-  <si>
-    <t>021136180879</t>
-  </si>
-  <si>
-    <t>Topo Chico Seltzer Variety 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>072311230186</t>
-  </si>
-  <si>
-    <t>Dos Equis 12oz Btl 18pk</t>
-  </si>
-  <si>
-    <t>072311130127</t>
-  </si>
-  <si>
-    <t>Dos Equis 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>089826900039</t>
-  </si>
-  <si>
-    <t>Tecate 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>089826900237</t>
-  </si>
-  <si>
-    <t>Tecate Light 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>087692821021</t>
-  </si>
-  <si>
-    <t>Angry Orchard 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>082000778219</t>
-  </si>
-  <si>
-    <t>Smirnoff Ice 11oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>635985224136</t>
-  </si>
-  <si>
-    <t>Mike's Strawberry Lemonade 11.2oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>635985129981</t>
-  </si>
-  <si>
-    <t>Mike's Variety 12oz Btl 12pk</t>
-  </si>
-  <si>
-    <t>087692831341</t>
-  </si>
-  <si>
-    <t>Twisted Tea 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>080660957661</t>
-  </si>
-  <si>
-    <t>Modelo Especial 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>033544001776</t>
-  </si>
-  <si>
-    <t>Modelo Chelada Variety 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>033544001295</t>
-  </si>
-  <si>
-    <t>Modelo Chelada Lemon y Sal 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>018200984013</t>
-  </si>
-  <si>
-    <t>Estrella Jalisco 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>018200984020</t>
-  </si>
-  <si>
-    <t>Estrella Jalisco 12oz Btl 12pk</t>
-  </si>
-  <si>
-    <t>080660953199</t>
-  </si>
-  <si>
-    <t>Pacifico 12oz Btl 12pk</t>
-  </si>
-  <si>
-    <t>033544950586</t>
-  </si>
-  <si>
-    <t>Corona Premier 12oz Btl 12pk</t>
-  </si>
-  <si>
     <t>033544001639</t>
   </si>
   <si>
     <t>Modelo Oro 12oz Can 12pk</t>
   </si>
   <si>
-    <t>080660956091</t>
-  </si>
-  <si>
-    <t>Corona Extra 12oz Btl 6pk</t>
+    <t>033544000212</t>
+  </si>
+  <si>
+    <t>Modelo Especial 7oz Btl 24pk</t>
+  </si>
+  <si>
+    <t>080660954080</t>
+  </si>
+  <si>
+    <t>Coronitas 7oz Btl 24pk</t>
   </si>
   <si>
     <t>080660956190</t>
@@ -1353,22 +1521,16 @@
     <t>Corona Extra 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>089826901180</t>
-  </si>
-  <si>
-    <t>Tecate Light 12oz Can 18pk</t>
-  </si>
-  <si>
-    <t>033544000212</t>
-  </si>
-  <si>
-    <t>Modelo Especial 7oz Btl 24pk</t>
-  </si>
-  <si>
-    <t>080660954080</t>
-  </si>
-  <si>
-    <t>Coronitas 7oz Btl 24pk</t>
+    <t>080660957111</t>
+  </si>
+  <si>
+    <t>Modelo Especial 12oz Can 18pk</t>
+  </si>
+  <si>
+    <t>080660957104</t>
+  </si>
+  <si>
+    <t>Modelo Especial 12oz Can 24pk</t>
   </si>
   <si>
     <t>080660957586</t>
@@ -1377,50 +1539,39 @@
     <t>Modelo Especial 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>080660957197</t>
-  </si>
-  <si>
-    <t>Modelo Especial 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>080660957104</t>
-  </si>
-  <si>
-    <t>Modelo Especial 12oz Can 24pk</t>
-  </si>
-  <si>
-    <t>080660957111</t>
-  </si>
-  <si>
-    <t>Modelo Especial 12oz Can 18pk</t>
-  </si>
-  <si>
     <t>033544950272</t>
   </si>
   <si>
     <t>Modelo Especial 12oz Btl 18pk</t>
   </si>
   <si>
-    <t>Cantaritos Mandarin 25oz</t>
-  </si>
-  <si>
-    <t>Liberty Creek Cabernet Sauvignon 500ml</t>
-  </si>
-  <si>
-    <t>Papago Orange Blossom 12oz Can 6pk</t>
-  </si>
-  <si>
-    <t>Four Peaks Bad Bird Juice 12oz Can 15pk</t>
+    <t>VIBE Blue Raspberry Lemonade Tetra 500mL</t>
+  </si>
+  <si>
+    <t>602755006438</t>
+  </si>
+  <si>
+    <t>Firestone 805 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>The Shop Church Music 16oz Can 4pk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1446,9 +1597,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1762,16 +1915,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7D97F3-357F-6445-9C7E-2CA824232F33}">
-  <dimension ref="A1:C231"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62C70C1-C33A-0B47-B17B-18610043F6D0}">
+  <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187:XFD187"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1790,21 +1945,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1812,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1823,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1834,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1856,10 +2011,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1867,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1878,10 +2033,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1889,32 +2044,32 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1922,109 +2077,109 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2032,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -2043,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2054,32 +2209,32 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2087,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2098,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2109,32 +2264,32 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2142,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
         <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2153,10 +2308,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2164,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2175,21 +2330,21 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
         <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
         <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2197,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
         <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2208,10 +2363,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
         <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2219,10 +2374,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2230,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2241,65 +2396,65 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
         <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
         <v>88</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
         <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
         <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2307,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2318,10 +2473,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2329,21 +2484,21 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2351,10 +2506,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2362,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2373,10 +2528,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2395,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2406,32 +2561,32 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2439,10 +2594,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,10 +2605,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
         <v>125</v>
@@ -2472,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
         <v>127</v>
@@ -2483,10 +2638,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
         <v>128</v>
-      </c>
-      <c r="C65" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2494,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
         <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2505,10 +2660,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,10 +2671,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>458</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2527,10 +2682,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2549,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2560,10 +2715,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2571,10 +2726,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2582,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
         <v>146</v>
@@ -2659,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2670,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2681,10 +2836,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2714,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2725,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2736,10 +2891,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2747,10 +2902,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2758,26 +2913,26 @@
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>181</v>
@@ -2849,7 +3004,7 @@
         <v>193</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2857,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2868,18 +3023,18 @@
         <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C101" t="s">
         <v>200</v>
@@ -2893,7 +3048,7 @@
         <v>201</v>
       </c>
       <c r="C102" t="s">
-        <v>459</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2901,10 +3056,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2912,21 +3067,21 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" t="s">
         <v>204</v>
-      </c>
-      <c r="C104" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2934,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2945,10 +3100,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2956,10 +3111,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2967,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2978,32 +3133,32 @@
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3011,10 +3166,10 @@
         <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3022,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3033,10 +3188,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,10 +3199,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" t="s">
         <v>228</v>
-      </c>
-      <c r="C116" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -3055,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C117" t="s">
         <v>230</v>
-      </c>
-      <c r="C117" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -3066,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" t="s">
         <v>232</v>
-      </c>
-      <c r="C118" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3077,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3110,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3121,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3132,10 +3287,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3143,10 +3298,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3154,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3165,10 +3320,10 @@
         <v>1</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3176,10 +3331,10 @@
         <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,10 +3342,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3198,65 +3353,65 @@
         <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3264,10 +3419,10 @@
         <v>1</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3278,29 +3433,29 @@
         <v>270</v>
       </c>
       <c r="C137" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C138" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C139" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -3308,10 +3463,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C140" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -3319,10 +3474,10 @@
         <v>1</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3330,21 +3485,21 @@
         <v>1</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -3352,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C144" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3363,21 +3518,21 @@
         <v>1</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C146" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3385,21 +3540,21 @@
         <v>1</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C148" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -3407,43 +3562,43 @@
         <v>1</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C150" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C152" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -3451,10 +3606,10 @@
         <v>1</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -3462,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -3473,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3484,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -3495,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3506,10 +3661,10 @@
         <v>1</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -3517,21 +3672,21 @@
         <v>1</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -3539,10 +3694,10 @@
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C161" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3550,10 +3705,10 @@
         <v>1</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -3561,32 +3716,32 @@
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C163" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B164" s="2" t="s">
         <v>325</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -3594,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -3605,10 +3760,10 @@
         <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C167" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3616,21 +3771,21 @@
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C168" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -3638,10 +3793,10 @@
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,10 +3804,10 @@
         <v>1</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C171" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -3660,10 +3815,10 @@
         <v>1</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C172" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -3671,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C173" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -3682,21 +3837,21 @@
         <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C174" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C175" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,10 +3859,10 @@
         <v>1</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C176" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,21 +3870,21 @@
         <v>1</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C177" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C178" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3737,10 +3892,10 @@
         <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C179" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,10 +3903,10 @@
         <v>1</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>356</v>
+        <v>507</v>
       </c>
       <c r="C180" t="s">
-        <v>357</v>
+        <v>508</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,10 +3914,10 @@
         <v>1</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C181" t="s">
         <v>358</v>
-      </c>
-      <c r="C181" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,10 +3925,10 @@
         <v>1</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C182" t="s">
         <v>360</v>
-      </c>
-      <c r="C182" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,10 +3936,10 @@
         <v>1</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C183" t="s">
         <v>362</v>
-      </c>
-      <c r="C183" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -3833,7 +3988,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>371</v>
@@ -3861,7 +4016,7 @@
         <v>375</v>
       </c>
       <c r="C190" t="s">
-        <v>376</v>
+        <v>509</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -3869,10 +4024,10 @@
         <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C191" t="s">
         <v>377</v>
-      </c>
-      <c r="C191" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -3880,10 +4035,10 @@
         <v>1</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C192" t="s">
         <v>379</v>
-      </c>
-      <c r="C192" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -3987,7 +4142,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>398</v>
@@ -4053,7 +4208,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>410</v>
@@ -4119,7 +4274,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>422</v>
@@ -4218,7 +4373,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>440</v>
@@ -4262,7 +4417,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>448</v>
@@ -4273,7 +4428,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>450</v>
@@ -4295,7 +4450,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>454</v>
@@ -4306,13 +4461,277 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>456</v>
       </c>
       <c r="C231" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C232" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C233" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C234" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C236" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C237" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C239" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C240" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C241" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C242" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C243" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C244" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C245" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>4</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C247" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C248" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C250" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C251" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C252" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C253" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C254" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C255" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
